--- a/presentacion_dashboard.xlsx
+++ b/presentacion_dashboard.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ertsaz90\Documents\UNIVERSIDAD\ESTRUCTURA DE DATOS II\MODULO III\02-PROYECTO\PROYECTO-No.-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7FF7A0-3E73-4E11-81A6-E2F915F07ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6B5CCC-7E07-46A0-8728-E2BAD4B0CEEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11115" activeTab="1" xr2:uid="{63B5FFBD-33CD-4821-984C-50B37B52B2D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11115" xr2:uid="{63B5FFBD-33CD-4821-984C-50B37B52B2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="DASHBOARD" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -160,6 +160,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -205,122 +208,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -329,26 +221,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="33">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.00000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -389,8 +364,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight6 2" pivot="0" table="0" count="10" xr9:uid="{FEEBD416-FD3C-4CDB-9521-99F7ACCD0813}">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1136,7 +1111,7 @@
             <c:numRef>
               <c:f>ANALISIS!$E$12:$E$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>3.0000000000000001E-6</c:v>
@@ -1286,22 +1261,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="707368351"/>
-        <c:axId val="659594191"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1514,7 +1473,7 @@
             <c:numRef>
               <c:f>ANALISIS!$F$12:$F$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>3.0000000000000001E-6</c:v>
@@ -1660,7 +1619,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F862-462D-B23C-64296A2AFC14}"/>
+              <c16:uniqueId val="{00000000-6E9B-4B8A-BBCD-8CA4A6E8F688}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1674,8 +1633,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="884735184"/>
-        <c:axId val="892867792"/>
+        <c:axId val="707368351"/>
+        <c:axId val="659594191"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="707368351"/>
@@ -1733,7 +1692,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1765,63 +1724,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="892867792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.4"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-419"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="884735184"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="884735184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="892867792"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3040,7 +2942,7 @@
                 <a:cs typeface="Segoe UI Black" panose="020B0A02040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:t>7.189729</a:t>
+              <a:t>7.19</a:t>
             </a:fld>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike">
@@ -3253,8 +3155,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="20" name=" Nombre de algoritmo  1">
@@ -3277,7 +3179,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4039,28 +3941,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2E917A5-7C57-47C3-8429-069EAE526C61}" name="TablaDinámica2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="K2:M19" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD45D261-1CB1-47C6-B330-9B8C4AB27051}" name="TablaDinámica3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD45D261-1CB1-47C6-B330-9B8C4AB27051}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -4291,8 +4172,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{100BE8AC-C66F-4030-98DC-2158C1ECC1A7}" name="TablaDinámica1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{100BE8AC-C66F-4030-98DC-2158C1ECC1A7}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="G3:I4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0" sortType="ascending"/>
@@ -4343,8 +4224,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D08AFC6C-F423-4838-8AA0-62CE3D34AF3D}" name="TablaDinámica4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D08AFC6C-F423-4838-8AA0-62CE3D34AF3D}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="D10:G58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -4571,6 +4452,15 @@
   <dataFields count="1">
     <dataField name="Suma de  tiempo" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <chartFormats count="2">
     <chartFormat chart="4" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -4659,7 +4549,7 @@
     <tableColumn id="1" xr3:uid="{7D48AF84-C549-41B5-AB85-E126EE0B1EDC}" uniqueName="1" name="tam del arreglo" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{F722E1C4-1F0F-4B89-9459-7F5F2973919B}" uniqueName="2" name=" tiempo" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{78FA574D-B9FC-406F-ACA8-03E328030DA2}" uniqueName="3" name=" intercambio" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{FF63E1D0-82CE-4EDE-9165-1D2BCBED5C2F}" uniqueName="4" name=" Nombre de algoritmo " queryTableFieldId="4" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{FF63E1D0-82CE-4EDE-9165-1D2BCBED5C2F}" uniqueName="4" name=" Nombre de algoritmo " queryTableFieldId="4" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4964,23 +4854,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3EFDD8-8FB3-4C44-AEDC-8B6D1E75F304}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -5180,10 +5070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2021DF72-0E8A-41D1-AAC7-38D659616633}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5201,7 +5091,7 @@
     <col min="85" max="85" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5215,12 +5105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5236,11 +5121,8 @@
       <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>10</v>
       </c>
@@ -5256,22 +5138,16 @@
       <c r="I4" s="2">
         <v>7.1897289999999998</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>30</v>
       </c>
@@ -5286,48 +5162,36 @@
         <f>GETPIVOTDATA("Suma de tam del arreglo",$G$3)</f>
         <v>11999900</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="9">
         <f>GETPIVOTDATA("Suma de  tiempo",$G$3)</f>
         <v>7.1897289999999998</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>40</v>
       </c>
       <c r="B7" s="2">
         <v>1.35E-4</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>50</v>
       </c>
       <c r="B8" s="2">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>60</v>
       </c>
       <c r="B9" s="2">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>70</v>
       </c>
@@ -5340,11 +5204,8 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>80</v>
       </c>
@@ -5363,11 +5224,8 @@
       <c r="G11" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>90</v>
       </c>
@@ -5377,20 +5235,17 @@
       <c r="D12" s="5">
         <v>10</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="8">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="8">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="8">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>100</v>
       </c>
@@ -5400,20 +5255,17 @@
       <c r="D13" s="5">
         <v>20</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="8">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="8">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="8">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>200</v>
       </c>
@@ -5423,20 +5275,17 @@
       <c r="D14" s="5">
         <v>30</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="8">
         <v>1.8E-5</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="8">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="8">
         <v>2.3E-5</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>300</v>
       </c>
@@ -5446,20 +5295,17 @@
       <c r="D15" s="5">
         <v>40</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="8">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="8">
         <v>1.27E-4</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="8">
         <v>1.35E-4</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>400</v>
       </c>
@@ -5469,20 +5315,17 @@
       <c r="D16" s="5">
         <v>50</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>500</v>
       </c>
@@ -5492,20 +5335,17 @@
       <c r="D17" s="5">
         <v>60</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="8">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="8">
         <v>1.1E-5</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="8">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>600</v>
       </c>
@@ -5515,20 +5355,17 @@
       <c r="D18" s="5">
         <v>70</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="8">
         <v>1.5E-5</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="8">
         <v>1.2E-5</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="8">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>700</v>
       </c>
@@ -5538,20 +5375,17 @@
       <c r="D19" s="5">
         <v>80</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="8">
         <v>1.7E-5</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="8">
         <v>1.4E-5</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="8">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>800</v>
       </c>
@@ -5561,17 +5395,17 @@
       <c r="D20" s="5">
         <v>90</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="8">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="8">
         <v>1.5E-5</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="8">
         <v>3.6000000000000001E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>900</v>
       </c>
@@ -5581,17 +5415,17 @@
       <c r="D21" s="5">
         <v>100</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="8">
         <v>2.3E-5</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="8">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="8">
         <v>4.2000000000000004E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>1000</v>
       </c>
@@ -5601,17 +5435,17 @@
       <c r="D22" s="5">
         <v>200</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="8">
         <v>1.17E-4</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="8">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="8">
         <v>1.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2000</v>
       </c>
@@ -5621,17 +5455,17 @@
       <c r="D23" s="5">
         <v>300</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="8">
         <v>8.6000000000000003E-5</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="8">
         <v>5.3999999999999998E-5</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="8">
         <v>1.3999999999999999E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>3000</v>
       </c>
@@ -5641,17 +5475,17 @@
       <c r="D24" s="5">
         <v>400</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="8">
         <v>1.2E-4</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="8">
         <v>7.7999999999999999E-5</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="8">
         <v>1.9799999999999999E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>4000</v>
       </c>
@@ -5661,17 +5495,17 @@
       <c r="D25" s="5">
         <v>500</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="8">
         <v>1.6699999999999999E-4</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="8">
         <v>8.6000000000000003E-5</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="8">
         <v>2.5299999999999997E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>5000</v>
       </c>
@@ -5681,17 +5515,17 @@
       <c r="D26" s="5">
         <v>600</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="8">
         <v>1.8599999999999999E-4</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="8">
         <v>1.06E-4</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="8">
         <v>2.92E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>6000</v>
       </c>
@@ -5701,17 +5535,17 @@
       <c r="D27" s="5">
         <v>700</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="8">
         <v>2.2499999999999999E-4</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="8">
         <v>1.34E-4</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="8">
         <v>3.59E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>7000</v>
       </c>
@@ -5721,17 +5555,17 @@
       <c r="D28" s="5">
         <v>800</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="8">
         <v>3.7500000000000001E-4</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="8">
         <v>1.44E-4</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="8">
         <v>5.1900000000000004E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>8000</v>
       </c>
@@ -5741,17 +5575,17 @@
       <c r="D29" s="5">
         <v>900</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="8">
         <v>7.0100000000000002E-4</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="8">
         <v>1.74E-4</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="8">
         <v>8.7500000000000002E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>9000</v>
       </c>
@@ -5761,17 +5595,17 @@
       <c r="D30" s="5">
         <v>1000</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="8">
         <v>3.3799999999999998E-4</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="8">
         <v>1.9900000000000001E-4</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="8">
         <v>5.3699999999999993E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>10000</v>
       </c>
@@ -5781,17 +5615,17 @@
       <c r="D31" s="5">
         <v>2000</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="8">
         <v>9.1200000000000005E-4</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="8">
         <v>4.0900000000000002E-4</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="8">
         <v>1.3210000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>20000</v>
       </c>
@@ -5801,13 +5635,13 @@
       <c r="D32" s="5">
         <v>3000</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="8">
         <v>1.163E-3</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="8">
         <v>6.4400000000000004E-4</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="8">
         <v>1.807E-3</v>
       </c>
     </row>
@@ -5821,13 +5655,13 @@
       <c r="D33" s="5">
         <v>4000</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="8">
         <v>1.658E-3</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="8">
         <v>8.8699999999999998E-4</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="8">
         <v>2.545E-3</v>
       </c>
     </row>
@@ -5841,13 +5675,13 @@
       <c r="D34" s="5">
         <v>5000</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="8">
         <v>2.1059999999999998E-3</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="8">
         <v>1.021E-3</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="8">
         <v>3.1269999999999996E-3</v>
       </c>
     </row>
@@ -5861,13 +5695,13 @@
       <c r="D35" s="5">
         <v>6000</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="8">
         <v>3.019E-3</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="8">
         <v>1.403E-3</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="8">
         <v>4.4219999999999997E-3</v>
       </c>
     </row>
@@ -5881,13 +5715,13 @@
       <c r="D36" s="5">
         <v>7000</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="8">
         <v>2.931E-3</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="8">
         <v>1.5499999999999999E-3</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="8">
         <v>4.4809999999999997E-3</v>
       </c>
     </row>
@@ -5901,13 +5735,13 @@
       <c r="D37" s="5">
         <v>8000</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="8">
         <v>3.5260000000000001E-3</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="8">
         <v>1.7730000000000001E-3</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="8">
         <v>5.2989999999999999E-3</v>
       </c>
     </row>
@@ -5921,13 +5755,13 @@
       <c r="D38" s="5">
         <v>9000</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="8">
         <v>4.1830000000000001E-3</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="8">
         <v>2.0660000000000001E-3</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="8">
         <v>6.2490000000000002E-3</v>
       </c>
     </row>
@@ -5941,13 +5775,13 @@
       <c r="D39" s="5">
         <v>10000</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="8">
         <v>4.5630000000000002E-3</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="8">
         <v>2.2529999999999998E-3</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="8">
         <v>6.816E-3</v>
       </c>
     </row>
@@ -5961,13 +5795,13 @@
       <c r="D40" s="5">
         <v>20000</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="8">
         <v>9.6019999999999994E-3</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="8">
         <v>4.79E-3</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="8">
         <v>1.4391999999999999E-2</v>
       </c>
     </row>
@@ -5981,13 +5815,13 @@
       <c r="D41" s="5">
         <v>30000</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="8">
         <v>1.5062000000000001E-2</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="8">
         <v>7.4190000000000002E-3</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="8">
         <v>2.2481000000000001E-2</v>
       </c>
     </row>
@@ -6001,13 +5835,13 @@
       <c r="D42" s="5">
         <v>40000</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="8">
         <v>2.1076000000000001E-2</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="8">
         <v>1.0234E-2</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="8">
         <v>3.1310000000000004E-2</v>
       </c>
     </row>
@@ -6021,13 +5855,13 @@
       <c r="D43" s="5">
         <v>50000</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="8">
         <v>2.8732000000000001E-2</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="8">
         <v>1.2952999999999999E-2</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="8">
         <v>4.1685E-2</v>
       </c>
     </row>
@@ -6041,13 +5875,13 @@
       <c r="D44" s="5">
         <v>60000</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="8">
         <v>3.3036000000000003E-2</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="8">
         <v>1.5852999999999999E-2</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="8">
         <v>4.8889000000000002E-2</v>
       </c>
     </row>
@@ -6061,13 +5895,13 @@
       <c r="D45" s="5">
         <v>70000</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="8">
         <v>4.0120999999999997E-2</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="8">
         <v>1.8024999999999999E-2</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="8">
         <v>5.8145999999999996E-2</v>
       </c>
     </row>
@@ -6081,13 +5915,13 @@
       <c r="D46" s="5">
         <v>80000</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="8">
         <v>4.6177999999999997E-2</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="8">
         <v>2.0372999999999999E-2</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="8">
         <v>6.6550999999999999E-2</v>
       </c>
     </row>
@@ -6101,13 +5935,13 @@
       <c r="D47" s="5">
         <v>90000</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="8">
         <v>5.4143999999999998E-2</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="8">
         <v>2.3342999999999999E-2</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="8">
         <v>7.7487E-2</v>
       </c>
     </row>
@@ -6121,13 +5955,13 @@
       <c r="D48" s="5">
         <v>100000</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="8">
         <v>6.0597999999999999E-2</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="8">
         <v>2.5922000000000001E-2</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="8">
         <v>8.652E-2</v>
       </c>
     </row>
@@ -6141,13 +5975,13 @@
       <c r="D49" s="5">
         <v>200000</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="8">
         <v>0.14377000000000001</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="8">
         <v>5.5113000000000002E-2</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="8">
         <v>0.198883</v>
       </c>
     </row>
@@ -6161,13 +5995,13 @@
       <c r="D50" s="5">
         <v>300000</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="8">
         <v>0.238845</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="8">
         <v>8.0675999999999998E-2</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="8">
         <v>0.319521</v>
       </c>
     </row>
@@ -6175,61 +6009,61 @@
       <c r="D51" s="5">
         <v>400000</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="8">
         <v>0.37293300000000001</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="8">
         <v>0.108446</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="8">
         <v>0.481379</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="5">
         <v>500000</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="8">
         <v>0.46398</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="8">
         <v>0.14100299999999999</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="8">
         <v>0.60498300000000005</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="5">
         <v>600000</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="8">
         <v>0.57397600000000004</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="8">
         <v>0.17005500000000001</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="8">
         <v>0.74403100000000011</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="5">
         <v>700000</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="8">
         <v>0.69705799999999996</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="8">
         <v>0.19572000000000001</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="8">
         <v>0.89277799999999996</v>
       </c>
     </row>
@@ -6237,13 +6071,13 @@
       <c r="D55" s="5">
         <v>800000</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="8">
         <v>0.79315199999999997</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="8">
         <v>0.224218</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="8">
         <v>1.0173699999999999</v>
       </c>
     </row>
@@ -6251,13 +6085,13 @@
       <c r="D56" s="5">
         <v>900000</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="8">
         <v>0.94108700000000001</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="8">
         <v>0.25316100000000002</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="8">
         <v>1.194248</v>
       </c>
     </row>
@@ -6265,13 +6099,13 @@
       <c r="D57" s="5">
         <v>1000000</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="8">
         <v>0.97011800000000004</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="8">
         <v>0.27921499999999999</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="8">
         <v>1.249333</v>
       </c>
     </row>
@@ -6296,12 +6130,12 @@
     <mergeCell ref="B54:C54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId7"/>
+        <x14:slicer r:id="rId6"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -6312,7 +6146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C31B00-6085-464F-B405-8256DDE688C0}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
